--- a/Result/googleNLP_result.xlsx
+++ b/Result/googleNLP_result.xlsx
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="416">
   <si>
     <t>At least 12 dead in shooting at office of satirical French magazine</t>
   </si>
@@ -1342,6 +1342,26 @@
   </si>
   <si>
     <t>press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NYP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NYT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1388,7 +1408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1396,6 +1416,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1702,20 +1725,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="80.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
@@ -4676,6 +4700,45 @@
       <c r="F141" s="2">
         <f t="shared" si="2"/>
         <v>1.4431586113002042</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B144" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C144" t="s">
+        <v>413</v>
+      </c>
+      <c r="D144" t="s">
+        <v>414</v>
+      </c>
+      <c r="E144" t="s">
+        <v>412</v>
+      </c>
+      <c r="F144" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B145">
+        <f>AVERAGE(C2:C31)</f>
+        <v>-9.6666666666666692E-2</v>
+      </c>
+      <c r="C145">
+        <f>AVERAGE(C32:C64)</f>
+        <v>-0.13636363636363638</v>
+      </c>
+      <c r="D145">
+        <f>AVERAGE(C65:C101)</f>
+        <v>-0.11621621621621621</v>
+      </c>
+      <c r="E145" s="3">
+        <f>AVERAGE(C102:C141)</f>
+        <v>-9.5000000000000029E-2</v>
+      </c>
+      <c r="F145">
+        <f>AVERAGE(B145:E145)</f>
+        <v>-0.11106162981162983</v>
       </c>
     </row>
   </sheetData>
@@ -4687,10 +4750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B48"/>
+      <selection activeCell="B50" sqref="B50:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5710,6 +5773,45 @@
         <v>1.9594594594594597</v>
       </c>
     </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C50" t="s">
+        <v>413</v>
+      </c>
+      <c r="D50" t="s">
+        <v>414</v>
+      </c>
+      <c r="E50" t="s">
+        <v>412</v>
+      </c>
+      <c r="F50" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B51">
+        <f>AVERAGE(C2:C23)</f>
+        <v>-0.22272727272727269</v>
+      </c>
+      <c r="C51">
+        <f>AVERAGE(C24:C27)</f>
+        <v>-0.22499999999999998</v>
+      </c>
+      <c r="D51">
+        <f>AVERAGE(C28:C41)</f>
+        <v>-0.21428571428571433</v>
+      </c>
+      <c r="E51" s="3">
+        <f>AVERAGE(C42:C48)</f>
+        <v>-0.18571428571428572</v>
+      </c>
+      <c r="F51">
+        <f>AVERAGE(B51:E51)</f>
+        <v>-0.21193181818181817</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5718,10 +5820,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119:F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8190,6 +8292,45 @@
         <v>1.4358974358974357</v>
       </c>
     </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B119" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C119" t="s">
+        <v>413</v>
+      </c>
+      <c r="D119" t="s">
+        <v>414</v>
+      </c>
+      <c r="E119" t="s">
+        <v>412</v>
+      </c>
+      <c r="F119" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B120">
+        <f>AVERAGE(C2:C29)</f>
+        <v>-5.7142857142857141E-2</v>
+      </c>
+      <c r="C120">
+        <f>AVERAGE(C30:C49)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="D120">
+        <f>AVERAGE(C50:C88)</f>
+        <v>-7.4358974358974386E-2</v>
+      </c>
+      <c r="E120" s="3">
+        <f>AVERAGE(C89:C117)</f>
+        <v>-6.5517241379310351E-2</v>
+      </c>
+      <c r="F120">
+        <f>AVERAGE(B120:E120)</f>
+        <v>-7.4254768220285469E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8198,10 +8339,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B20" sqref="B20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8591,6 +8732,45 @@
         <v>1.7327365728900257</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C20" t="s">
+        <v>413</v>
+      </c>
+      <c r="D20" t="s">
+        <v>414</v>
+      </c>
+      <c r="E20" t="s">
+        <v>412</v>
+      </c>
+      <c r="F20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <f>AVERAGE(C2:C8)</f>
+        <v>-9.9999999999999992E-2</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(C9)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(C10:C13)</f>
+        <v>-7.5000000000000011E-2</v>
+      </c>
+      <c r="E21" s="3">
+        <f>AVERAGE(C14:C18)</f>
+        <v>-0.13999999999999999</v>
+      </c>
+      <c r="F21">
+        <f>AVERAGE(B21:E21)</f>
+        <v>-0.10375000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8599,10 +8779,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9480,7 +9660,7 @@
         <v>355</v>
       </c>
       <c r="B42" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C42">
         <v>0.1</v>
@@ -10063,9 +10243,43 @@
         <v>1.1928429423459244</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B70" t="s">
-        <v>408</v>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B71" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C71" t="s">
+        <v>413</v>
+      </c>
+      <c r="D71" t="s">
+        <v>414</v>
+      </c>
+      <c r="E71" t="s">
+        <v>412</v>
+      </c>
+      <c r="F71" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B72">
+        <f>AVERAGE(C2:C8)</f>
+        <v>4.2857142857142864E-2</v>
+      </c>
+      <c r="C72">
+        <f>AVERAGE(C9:C14)</f>
+        <v>-5.000000000000001E-2</v>
+      </c>
+      <c r="D72">
+        <f>AVERAGE(C15:C41)</f>
+        <v>-3.3333333333333333E-2</v>
+      </c>
+      <c r="E72" s="3">
+        <f>AVERAGE(C42:C69)</f>
+        <v>-1.4285714285714287E-2</v>
+      </c>
+      <c r="F72">
+        <f>AVERAGE(B72:E72)</f>
+        <v>-1.369047619047619E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10077,10 +10291,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10533,6 +10747,45 @@
         <v>1.4443500424808835</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D23" t="s">
+        <v>414</v>
+      </c>
+      <c r="E23" t="s">
+        <v>412</v>
+      </c>
+      <c r="F23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <f>AVERAGE(C2:C7)</f>
+        <v>-0.16666666666666666</v>
+      </c>
+      <c r="C24">
+        <f>AVERAGE(C8:C9)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="D24">
+        <f>AVERAGE(C10:C16)</f>
+        <v>-0.20000000000000004</v>
+      </c>
+      <c r="E24" s="3">
+        <f>AVERAGE(C17:C21)</f>
+        <v>-0.16</v>
+      </c>
+      <c r="F24">
+        <f>AVERAGE(B24:E24)</f>
+        <v>-0.1816666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Result/googleNLP_result.xlsx
+++ b/Result/googleNLP_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="B2" sheetId="5" r:id="rId4"/>
     <sheet name="C1" sheetId="6" r:id="rId5"/>
     <sheet name="C2" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_C1__France" localSheetId="4">'C1'!$A$2:$E$69</definedName>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="426">
   <si>
     <t>At least 12 dead in shooting at office of satirical French magazine</t>
   </si>
@@ -1363,13 +1364,43 @@
   <si>
     <t>average score</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Neg - Pos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1385,6 +1416,19 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1394,12 +1438,64 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1408,7 +1504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1420,6 +1516,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1436,6 +1544,1063 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>SentiWordNet Neg - Pos Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neg - Pos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>A1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0F3-48CA-9764-F20BA7073F9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="983949983"/>
+        <c:axId val="983956639"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="983949983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Incidents</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="983956639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="983956639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="983949983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1727,7 +2892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B130" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -4752,7 +5917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B52" workbookViewId="0">
       <selection activeCell="B50" sqref="B50:F51"/>
     </sheetView>
   </sheetViews>
@@ -5822,7 +6987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
+    <sheetView topLeftCell="B116" workbookViewId="0">
       <selection activeCell="B119" sqref="B119:F120"/>
     </sheetView>
   </sheetViews>
@@ -8341,7 +9506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:F21"/>
     </sheetView>
   </sheetViews>
@@ -8781,7 +9946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="B59" workbookViewId="0">
       <selection activeCell="B71" sqref="B71:F72"/>
     </sheetView>
   </sheetViews>
@@ -10293,7 +11458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="B8" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -10790,4 +11955,114 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="C2" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>14.93</v>
+      </c>
+      <c r="E2" s="7">
+        <v>10.91</v>
+      </c>
+      <c r="F2" s="7">
+        <v>16.45</v>
+      </c>
+      <c r="G2" s="7">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3" s="7">
+        <v>14.01</v>
+      </c>
+      <c r="C3" s="7">
+        <v>9.82</v>
+      </c>
+      <c r="D3" s="7">
+        <v>13.16</v>
+      </c>
+      <c r="E3" s="7">
+        <v>8.11</v>
+      </c>
+      <c r="F3" s="7">
+        <v>14.35</v>
+      </c>
+      <c r="G3" s="7">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1.59</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5.68</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.77</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Result/googleNLP_result.xlsx
+++ b/Result/googleNLP_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="C1" sheetId="6" r:id="rId5"/>
     <sheet name="C2" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_C1__France" localSheetId="4">'C1'!$A$2:$E$69</definedName>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="426">
   <si>
     <t>At least 12 dead in shooting at office of satirical French magazine</t>
   </si>
@@ -1400,7 +1401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1417,9 +1418,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1504,7 +1519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1517,16 +1532,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1574,13 +1595,13 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:rPr lang="en-US"/>
               <a:t>SentiWordNet Neg - Pos Score</a:t>
             </a:r>
           </a:p>
@@ -1607,9 +1628,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ko-KR"/>
@@ -1741,16 +1762,16 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Incidents</a:t>
                 </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+                <a:endParaRPr lang="ko-KR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1775,9 +1796,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ko-KR"/>
@@ -1813,9 +1834,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
@@ -1863,16 +1884,16 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Score</a:t>
                 </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+                <a:endParaRPr lang="ko-KR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1897,9 +1918,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ko-KR"/>
@@ -1929,9 +1950,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
@@ -1971,9 +1992,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
@@ -2012,7 +2033,491 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Google NLP API Sentiment Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>A1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7797-48FD-A8D8-F29D19EF1013}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1075377903"/>
+        <c:axId val="1075376239"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1075377903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Incidents</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075376239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1075376239"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075377903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
@@ -2026,6 +2531,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2568,20 +3113,558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2892,7 +3975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView topLeftCell="B130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -11959,10 +13042,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12059,10 +13142,89 @@
         <v>4.92</v>
       </c>
     </row>
+    <row r="26" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H26">
+        <f>140/47</f>
+        <v>2.978723404255319</v>
+      </c>
+      <c r="I26">
+        <f>116/17</f>
+        <v>6.8235294117647056</v>
+      </c>
+      <c r="J26">
+        <f>68/20</f>
+        <v>3.4</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGE(H26:J26)</f>
+        <v>4.4007509386733412</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8"/>
+      <c r="B1" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="7">
+        <v>-0.111</v>
+      </c>
+      <c r="C2" s="9">
+        <v>-0.21199999999999999</v>
+      </c>
+      <c r="D2" s="9">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>-0.104</v>
+      </c>
+      <c r="F2" s="9">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="G2" s="9">
+        <v>-0.182</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>